--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:13:52+00:00</t>
+    <t>2025-11-19T14:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:50:27+00:00</t>
+    <t>2025-12-10T10:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:48:22+00:00</t>
+    <t>2025-12-16T16:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T16:03:36+00:00</t>
+    <t>2025-12-17T08:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:36:43+00:00</t>
+    <t>2025-12-17T09:53:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:53:59+00:00</t>
+    <t>2025-12-17T13:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T13:30:02+00:00</t>
+    <t>2025-12-18T10:47:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:12+00:00</t>
+    <t>2026-01-15T09:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T09:50:34+00:00</t>
+    <t>2026-01-15T10:29:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:29:06+00:00</t>
+    <t>2026-01-15T13:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/TypeCarteVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/ValueSet/TypeCarteVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:07:06+00:00</t>
+    <t>2026-01-15T15:25:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/CodeSystem/type-carte-code-system</t>
   </si>
 </sst>
 </file>

--- a/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ANS-170-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:25:40+00:00</t>
+    <t>2026-01-19T13:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
